--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -33,13 +33,13 @@
     <t>cnme</t>
   </si>
   <si>
-    <t>gfg</t>
-  </si>
-  <si>
     <t>prctnme</t>
   </si>
   <si>
-    <t>kjh</t>
+    <t>daya</t>
+  </si>
+  <si>
+    <t>Clean bill</t>
   </si>
 </sst>
 </file>
@@ -391,13 +391,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -411,7 +413,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -422,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -40,13 +40,43 @@
   </si>
   <si>
     <t>Clean bill</t>
+  </si>
+  <si>
+    <t>emailid</t>
+  </si>
+  <si>
+    <t>retype</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>passwrd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fstname </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lastname</t>
+  </si>
+  <si>
+    <t>Daya</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>daya@gmail.com</t>
+  </si>
+  <si>
+    <t>12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +99,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,15 +124,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -400,9 +444,13 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,8 +463,26 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -429,10 +495,31 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
